--- a/config_3.23/fish_3d_yutu_random_2.xlsx
+++ b/config_3.23/fish_3d_yutu_random_2.xlsx
@@ -1599,10 +1599,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="28">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J18" s="28">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1627,10 +1627,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="28">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J19" s="28">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1655,10 +1655,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="28">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J20" s="28">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1683,10 +1683,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="28">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J21" s="28">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1711,10 +1711,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="28">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J22" s="28">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
